--- a/履歴書/履歴書_鷹木.xlsx
+++ b/履歴書/履歴書_鷹木.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyok\OneDrive\デスクトップ\gitRepositoy\work\履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E52290-9A5B-4352-B0F7-6AB907FF9C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBDE892-9AEF-45E0-9E92-1A157C727140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A3" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>履　歴　書</t>
   </si>
@@ -52,48 +52,27 @@
     <t>鷹木　永聖</t>
   </si>
   <si>
-    <t>昭和63年　　3月　　14日生　（満32歳）</t>
-  </si>
-  <si>
     <t>※</t>
   </si>
   <si>
     <t>男・女</t>
   </si>
   <si>
-    <t>いわてけんもりおかしながい</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 電話</t>
   </si>
   <si>
     <t xml:space="preserve"> 現住所　〒</t>
   </si>
   <si>
-    <t>019-697-6942</t>
-  </si>
-  <si>
-    <t>岩手県盛岡市永井25-48-13たんぽぽ18号館202号室</t>
-  </si>
-  <si>
     <t>免　許・資　格</t>
   </si>
   <si>
-    <t>平成15</t>
-  </si>
-  <si>
-    <t>全国商業高等学校主催情報処理検定　　　3級</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 連絡先　〒</t>
   </si>
   <si>
     <t>（現住所以外に連絡を希望する場合のみ記入）</t>
   </si>
   <si>
-    <t>eメールアドレス　   　nagamasa1969@i.softbank.jp</t>
-  </si>
-  <si>
     <t>平成17</t>
   </si>
   <si>
@@ -103,15 +82,9 @@
     <t>平成18</t>
   </si>
   <si>
-    <t>普通自動車運転免許　　　　　　　　　第2種</t>
-  </si>
-  <si>
     <t>令和2</t>
   </si>
   <si>
-    <t>C言語プログラミング能力認定試験　　　 2級</t>
-  </si>
-  <si>
     <t>学　歴</t>
   </si>
   <si>
@@ -134,9 +107,6 @@
   </si>
   <si>
     <t>　私はこれまでの仕事で、接客や家電販売、10人規模の現場での責任者、通信回線の切替え責任者、切替え図面作成をしてきました。その能力を貴社で、仲間とコミュニケーションを取りながら一つの良い商品を作る、顧客や世間のニーズに合わせ柔軟な対応をしてプログラムを作る事で、発揮できると思っております。　また、貴社の開発しているSmart3teneは、農業シュミレーターで昨今の農業生産者の減少に対する問題に警鐘を鳴らし、生産性の向上を目指しているところが素晴らしい製品だと感銘を受け、私も開発の力になりたいと思い応募しました。</t>
-  </si>
-  <si>
-    <t>約　　時間　　20分</t>
   </si>
   <si>
     <t>職　歴</t>
@@ -243,9 +213,6 @@
     <t>公共職業訓練(ICT実務科)　　  修了</t>
   </si>
   <si>
-    <t>　　　　　　　　　　　　　　　　　　以　上</t>
-  </si>
-  <si>
     <t>記入上の注意</t>
   </si>
   <si>
@@ -253,12 +220,123 @@
   </si>
   <si>
     <t>３．※印のところは、該当するものを○で囲む。</t>
+  </si>
+  <si>
+    <t>eメールアドレス　   　nagamasa1969@icloud.com</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>昭和63年　　3月　　14日生　（満36歳）</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>イワテケンモリオカシサンボンヤナギ10チワリ6バンチ5</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>岩手県盛岡市三本柳10地割6番地5</t>
+    <rPh sb="0" eb="6">
+      <t>イワテケンモリオカシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サンボンヤナギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チワリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>090-2976-7433</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>令和3</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>株式会社NEXT　　　　　　　入社（正社員）</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>セイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>株式会社NEXT　　　　　　　退社予定</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>令和6</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>平成18</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>普通自動車運転免許　　　　　　　　　第2種</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>令和2</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>C言語プログラミング能力認定試験　　　 2級</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>JAVAプログラミング能力認定試験　　　 2級</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>令和4</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>応用情報技術者試験</t>
+    <rPh sb="0" eb="4">
+      <t>オウヨウジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>ギジュツシャシケン</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>約　　時間　　分</t>
+    <phoneticPr fontId="28"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -670,6 +748,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,10 +880,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -768,10 +901,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
@@ -786,121 +919,154 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading (user)" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1349,6 +1515,189 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 結合子 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F251A283-388E-81D4-DF2E-16D63E84D6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3663950" y="1854200"/>
+          <a:ext cx="158750" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 結合子 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45BD9E9-7B0E-4F1F-948E-29F0F7663E60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11982450" y="7435850"/>
+          <a:ext cx="158750" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 結合子 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC1F619-E056-4ACB-B0E7-DD1DF5D9719A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13163550" y="7448550"/>
+          <a:ext cx="158750" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1668,15 +2017,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O52"/>
+  <dimension ref="B3:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.81640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1696,8 +2045,6 @@
     <col min="17" max="64" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="13" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:15" ht="13" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:15" ht="23.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1711,34 +2058,36 @@
       <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1748,758 +2097,774 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="25" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="12" t="s">
+      <c r="K9" s="20"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="16" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="44"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="44"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="44"/>
+      <c r="K15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="K17" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="59">
+        <v>1</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+    </row>
+    <row r="18" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32"/>
-      <c r="K15" s="34" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+    </row>
+    <row r="19" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="36"/>
+      <c r="K20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="11">
+        <v>4</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="36"/>
+      <c r="K21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="25">
+        <v>10</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+    </row>
+    <row r="22" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="C23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-    </row>
-    <row r="17" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="36"/>
-      <c r="K17" s="37" t="s">
+      <c r="D23" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="K24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="33">
+        <v>1</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="K26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="33">
+        <v>10</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+    </row>
+    <row r="27" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="25">
+        <v>4</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+    </row>
+    <row r="28" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+    </row>
+    <row r="29" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="37">
+      <c r="C29" s="25">
         <v>3</v>
       </c>
-      <c r="M17" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-    </row>
-    <row r="19" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="40"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="K20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="11">
-        <v>1</v>
-      </c>
-      <c r="M20" s="38" t="s">
+      <c r="D29" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="K21" s="37" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="K31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="37">
-        <v>4</v>
-      </c>
-      <c r="M21" s="38" t="s">
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="K24" s="37" t="s">
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="K32" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="25">
-        <v>10</v>
-      </c>
-      <c r="M24" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-    </row>
-    <row r="25" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-    </row>
-    <row r="26" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="37">
-        <v>4</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-    </row>
-    <row r="29" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="37">
-        <v>3</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-    </row>
-    <row r="30" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="K31" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="O31" s="43"/>
-    </row>
-    <row r="32" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="K32" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="O32" s="45"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="O32" s="30"/>
     </row>
     <row r="33" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
+      <c r="D33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
     </row>
     <row r="34" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="37">
+      <c r="B34" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="25">
         <v>4</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
+      <c r="D34" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
     </row>
     <row r="35" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="O35" s="43"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="27"/>
     </row>
     <row r="36" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="37">
+      <c r="B36" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="25">
         <v>10</v>
       </c>
-      <c r="D36" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="O36" s="47"/>
+      <c r="D36" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="28"/>
     </row>
     <row r="37" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="46"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
     </row>
     <row r="38" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="25">
+        <v>3</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+    </row>
+    <row r="41" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="25">
+        <v>4</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+    </row>
+    <row r="42" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="25">
+        <v>10</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="K44" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="37">
-        <v>3</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="O39" s="48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-    </row>
-    <row r="41" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="37">
-        <v>4</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-    </row>
-    <row r="42" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-    </row>
-    <row r="43" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="37">
-        <v>10</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-    </row>
-    <row r="44" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="46"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="K44" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
     </row>
     <row r="45" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C45" s="5">
         <v>3</v>
       </c>
-      <c r="D45" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="K45" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
+      <c r="D45" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="K45" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
     </row>
     <row r="46" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C46" s="5">
         <v>7</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
+      <c r="D46" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
     </row>
     <row r="47" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C47" s="5">
         <v>10</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+    </row>
+    <row r="48" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-    </row>
-    <row r="48" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="17"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="42" t="s">
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+    </row>
+    <row r="49" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="5">
+        <v>7</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-    </row>
-    <row r="49" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="17"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
     </row>
     <row r="50" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="51"/>
+      <c r="B51" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="21"/>
       <c r="D51" s="19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E51" s="19"/>
     </row>
@@ -2507,36 +2872,76 @@
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E52" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="K49:O49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="K48:O48"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:H44"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:H42"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:O12"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:G13"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:O14"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:O16"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:O19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="B19:G21"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:O23"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:H24"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:O25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:O27"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:O29"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:H30"/>
     <mergeCell ref="D34:H35"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="B36:B37"/>
@@ -2553,70 +2958,30 @@
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:O29"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="D23:H24"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:O25"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:O27"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="B19:G21"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:O23"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:O16"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:O19"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:O12"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:G13"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:O14"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:H44"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:H42"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="K49:O49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="K48:O48"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
   <pageMargins left="0.78740157480314954" right="0.51181102362204722" top="0.8468503937007873" bottom="0.6889763779527559" header="0.55157480314960616" footer="0.39370078740157477"/>

--- a/履歴書/履歴書_鷹木.xlsx
+++ b/履歴書/履歴書_鷹木.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyok\OneDrive\デスクトップ\gitRepositoy\work\履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBDE892-9AEF-45E0-9E92-1A157C727140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501B462E-D2A0-4A28-8956-390E461578B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>　通勤時間</t>
   </si>
   <si>
-    <t>　私はこれまでの仕事で、接客や家電販売、10人規模の現場での責任者、通信回線の切替え責任者、切替え図面作成をしてきました。その能力を貴社で、仲間とコミュニケーションを取りながら一つの良い商品を作る、顧客や世間のニーズに合わせ柔軟な対応をしてプログラムを作る事で、発揮できると思っております。　また、貴社の開発しているSmart3teneは、農業シュミレーターで昨今の農業生産者の減少に対する問題に警鐘を鳴らし、生産性の向上を目指しているところが素晴らしい製品だと感銘を受け、私も開発の力になりたいと思い応募しました。</t>
-  </si>
-  <si>
     <t>職　歴</t>
   </si>
   <si>
@@ -330,6 +327,118 @@
   </si>
   <si>
     <t>約　　時間　　分</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>　私は今までIT業界で業務系の仕事をしながら、趣味でゲーム作成や、プログラミングで自作のツールを作成してきました。今回、御社を志望したのは、ホームページに記載している、「創りたいのは、誰も体験したことない楽しさ」という部分で、私も誰も創ったことのないジャンルの、斬新で飽きが来ないゲームを創ってみたいと思っておりました。また、最新の技術やツールも積極的に取り入れているという部分が、私も新しい技術などを使用して、品質や性能が高いものを創りたいと思い、この度応募しました。</t>
+    <rPh sb="1" eb="2">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ギョウムケイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジサク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>オンシャ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="173" eb="176">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>オウボ</t>
+    </rPh>
     <phoneticPr fontId="28"/>
   </si>
 </sst>
@@ -596,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -803,6 +912,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,41 +1065,59 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,16 +1125,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,71 +1146,71 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2021,9 +2185,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:O52"/>
+  <dimension ref="B3:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2058,36 +2222,34 @@
       <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K4" s="20"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -2097,188 +2259,188 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="33" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="66"/>
     </row>
     <row r="8" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="D11" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="44"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="44"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="B14" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="43"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="44"/>
-      <c r="K15" s="32" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="43"/>
+      <c r="K15" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
     </row>
     <row r="16" spans="2:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
     </row>
     <row r="17" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="K17" s="59" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="47"/>
+      <c r="K17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="48">
         <v>1</v>
       </c>
       <c r="M17" s="50" t="s">
@@ -2288,35 +2450,35 @@
       <c r="O17" s="52"/>
     </row>
     <row r="18" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="23"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="53"/>
       <c r="N18" s="54"/>
       <c r="O18" s="55"/>
     </row>
     <row r="19" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="H19" s="23"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="56"/>
       <c r="N19" s="57"/>
       <c r="O19" s="58"/>
@@ -2328,18 +2490,18 @@
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
-      <c r="H20" s="36"/>
+      <c r="H20" s="23"/>
       <c r="K20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="11">
         <v>4</v>
       </c>
-      <c r="M20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
+      <c r="M20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
     </row>
     <row r="21" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37"/>
@@ -2348,101 +2510,101 @@
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="36"/>
+      <c r="H21" s="23"/>
       <c r="K21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L21" s="25">
         <v>10</v>
       </c>
-      <c r="M21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
+      <c r="M21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
     </row>
     <row r="22" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
     </row>
     <row r="23" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
     </row>
     <row r="24" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
       <c r="K24" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="33">
+        <v>58</v>
+      </c>
+      <c r="L24" s="39">
         <v>1</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+    </row>
+    <row r="26" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="K26" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-    </row>
-    <row r="25" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-    </row>
-    <row r="26" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="K26" s="25" t="s">
+      <c r="L26" s="39">
+        <v>10</v>
+      </c>
+      <c r="M26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="33">
-        <v>10</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="25" t="s">
@@ -2451,34 +2613,34 @@
       <c r="C27" s="25">
         <v>4</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
     </row>
     <row r="28" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="22" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
     </row>
     <row r="29" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
@@ -2487,79 +2649,79 @@
       <c r="C29" s="25">
         <v>3</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="K31" s="27" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="K31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27" t="s">
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="27"/>
+      <c r="O31" s="30"/>
     </row>
     <row r="32" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="K32" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="30" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="K32" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="O32" s="30"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="O32" s="33"/>
     </row>
     <row r="33" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
+      <c r="D33" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
     </row>
     <row r="34" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="25" t="s">
@@ -2568,192 +2730,192 @@
       <c r="C34" s="25">
         <v>4</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
+      <c r="D34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
     </row>
     <row r="35" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="27"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" s="30"/>
     </row>
     <row r="36" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="25">
         <v>10</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" s="28"/>
+      <c r="O36" s="31"/>
     </row>
     <row r="37" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
     </row>
     <row r="38" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="18" t="s">
+      <c r="O38" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="25">
         <v>3</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O39" s="26" t="s">
-        <v>41</v>
+      <c r="O39" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
     </row>
     <row r="41" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="25">
         <v>4</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="D41" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
     </row>
     <row r="42" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="25">
         <v>10</v>
       </c>
-      <c r="D43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="D43" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="K44" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="K44" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
     </row>
     <row r="45" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
@@ -2762,20 +2924,20 @@
       <c r="C45" s="5">
         <v>3</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="K45" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="K45" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
     </row>
     <row r="46" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="17" t="s">
@@ -2784,18 +2946,18 @@
       <c r="C46" s="5">
         <v>7</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
+      <c r="D46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
     </row>
     <row r="47" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="17" t="s">
@@ -2804,80 +2966,96 @@
       <c r="C47" s="5">
         <v>10</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
+      <c r="D47" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
     </row>
     <row r="48" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
+      <c r="D48" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
     </row>
     <row r="49" spans="2:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="5">
+        <v>10</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" spans="2:15" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="17"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="5">
-        <v>7</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-    </row>
-    <row r="50" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="21" t="s">
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="19" t="s">
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="19"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="19"/>
+      <c r="E53" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="106">
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
@@ -2975,18 +3153,20 @@
     <mergeCell ref="D41:H42"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="K49:O49"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="K46:O46"/>
     <mergeCell ref="D47:H47"/>
     <mergeCell ref="K47:O47"/>
     <mergeCell ref="D48:H48"/>
     <mergeCell ref="K48:O48"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="K50:O50"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
   <pageMargins left="0.78740157480314954" right="0.51181102362204722" top="0.8468503937007873" bottom="0.6889763779527559" header="0.55157480314960616" footer="0.39370078740157477"/>
-  <pageSetup paperSize="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="59" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>